--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_1_burndown_chart_Sprint_5_dias.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_1_burndown_chart_Sprint_5_dias.xlsx
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -118,6 +118,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -256,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,7 +282,7 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -293,8 +298,12 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -399,11 +408,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="850762958"/>
-        <c:axId val="386812982"/>
+        <c:axId val="457934422"/>
+        <c:axId val="1089728870"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="850762958"/>
+        <c:axId val="457934422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,10 +464,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386812982"/>
+        <c:crossAx val="1089728870"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386812982"/>
+        <c:axId val="1089728870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850762958"/>
+        <c:crossAx val="457934422"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -782,8 +791,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
-    <col customWidth="1" min="2" max="2" width="21.86"/>
+    <col customWidth="1" min="1" max="1" width="21.71"/>
+    <col customWidth="1" min="2" max="2" width="15.29"/>
     <col customWidth="1" min="3" max="3" width="10.57"/>
     <col customWidth="1" min="4" max="8" width="4.57"/>
     <col customWidth="1" min="9" max="26" width="10.71"/>
@@ -919,17 +928,17 @@
       <c r="B6" s="12">
         <v>2.0</v>
       </c>
-      <c r="C6" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -944,10 +953,10 @@
       <c r="B7" s="12">
         <v>2.0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>2.0</v>
       </c>
-      <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -969,10 +978,10 @@
       <c r="B8" s="12">
         <v>2.0</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17">
+      <c r="C8" s="17">
         <v>2.0</v>
       </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -994,7 +1003,9 @@
       <c r="B9" s="12">
         <v>3.0</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="17">
+        <v>2.0</v>
+      </c>
       <c r="D9" s="17">
         <v>2.0</v>
       </c>
@@ -1004,7 +1015,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1021,7 +1032,7 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="17">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1029,7 +1040,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1044,17 +1055,17 @@
       <c r="B11" s="12">
         <v>5.0</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17">
-        <v>7.0</v>
-      </c>
+      <c r="C11" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1069,11 +1080,11 @@
       <c r="B12" s="12">
         <v>2.0</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>2.0</v>
       </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1095,16 +1106,16 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17">
-        <v>1.0</v>
-      </c>
+      <c r="D13" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1120,11 +1131,11 @@
         <v>2.0</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="17">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
         <v>2.0</v>
       </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="18">
@@ -1146,15 +1157,15 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17">
-        <v>4.0</v>
-      </c>
+      <c r="E15" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1171,15 +1182,15 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="17">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1197,7 +1208,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="17">
         <v>4.0</v>
       </c>
@@ -1219,17 +1230,17 @@
       <c r="B18" s="12">
         <v>3.0</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="17">
+        <v>4.0</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="17">
-        <v>3.0</v>
-      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1244,17 +1255,17 @@
       <c r="B19" s="12">
         <v>3.0</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17">
+        <v>2.0</v>
+      </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="17">
-        <v>3.0</v>
-      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="15"/>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1269,11 +1280,11 @@
       <c r="B20" s="12">
         <v>2.0</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <v>4.0</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
       <c r="H20" s="17"/>
@@ -1288,15 +1299,15 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1304,36 +1315,36 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20">
         <f>SUM(B5:B20)</f>
         <v>44</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="20">
         <f>B22</f>
         <v>44</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="20">
         <f t="shared" ref="D22:H22" si="2">C22-SUM(C5:C20)</f>
-        <v>31</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F22" s="3">
+        <v>28</v>
+      </c>
+      <c r="E22" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G22" s="3">
+      <c r="F22" s="20">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I22" s="20"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1341,35 +1352,35 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="20">
         <f t="shared" ref="B23:G23" si="3">C22</f>
         <v>44</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="20">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="E23" s="2">
+        <v>28</v>
+      </c>
+      <c r="D23" s="20">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="20">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="20">
         <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1377,36 +1388,36 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20">
         <f>SUM(B5:B20)</f>
         <v>44</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="20">
         <f>SUM(B5:B20)</f>
         <v>44</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="20">
         <f t="shared" ref="D24:H24" si="4">C24-(SUM($B$5:$B$20)/5)</f>
         <v>35.2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="20">
         <f t="shared" si="4"/>
         <v>26.4</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="20">
         <f t="shared" si="4"/>
         <v>17.6</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="20">
         <f t="shared" si="4"/>
         <v>8.8</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1414,35 +1425,35 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="20">
         <f>B24</f>
         <v>44</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="20">
         <f t="shared" ref="C25:G25" si="5">D24</f>
         <v>35.2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="20">
         <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="20">
         <f t="shared" si="5"/>
         <v>17.6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="20">
         <f t="shared" si="5"/>
         <v>8.8</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1450,15 +1461,15 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1466,15 +1477,15 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1483,12 +1494,12 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1499,12 +1510,12 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1515,12 +1526,12 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1531,27 +1542,27 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1561,7 +1572,7 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1571,7 +1582,7 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2544,8 +2555,8 @@
   <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
